--- a/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
+++ b/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-27T18:15:49+00:00</t>
+    <t>2022-08-08T14:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
+++ b/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T14:54:31+00:00</t>
+    <t>2022-08-08T14:55:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
+++ b/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T14:55:01+00:00</t>
+    <t>2022-08-08T14:55:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
+++ b/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T14:55:43+00:00</t>
+    <t>2022-08-08T14:58:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
+++ b/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="454">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T14:58:25+00:00</t>
+    <t>2022-09-20T21:17:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -278,528 +278,532 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>ServiceRequest.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>ServiceRequest.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>ServiceRequest.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>ServiceRequest.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>ServiceRequest.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>ServiceRequest.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Identifiers assigned to this order</t>
+  </si>
+  <si>
+    <t>Identifiers assigned to this order instance by the orderer and/or the receiver and/or order fulfiller.</t>
+  </si>
+  <si>
+    <t>The identifier.type element is used to distinguish between the identifiers assigned by the orderer (known as the 'Placer' in HL7 v2) and the producer of the observations in response to the order (known as the 'Filler' in HL7 v2).  For further discussion and examples see the resource notes section below.</t>
+  </si>
+  <si>
+    <t>Request.identifier</t>
+  </si>
+  <si>
+    <t>ORC.2, ORC.3, RF1-6 / RF1-11,</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>ClinicalStatement.identifier</t>
+  </si>
+  <si>
+    <t>ServiceRequest.instantiatesCanonical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(ActivityDefinition|PlanDefinition)
+</t>
+  </si>
+  <si>
+    <t>Instantiates FHIR protocol or definition</t>
+  </si>
+  <si>
+    <t>The URL pointing to a FHIR-defined protocol, guideline, orderset or other definition that is adhered to in whole or in part by this ServiceRequest.</t>
+  </si>
+  <si>
+    <t>Note: This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
+  </si>
+  <si>
+    <t>Request.instantiatesCanonical</t>
+  </si>
+  <si>
+    <t>Varies by domain</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=DEFN].target</t>
+  </si>
+  <si>
+    <t>ServiceRequest.instantiatesUri</t>
+  </si>
+  <si>
+    <t>Instantiates external protocol or definition</t>
+  </si>
+  <si>
+    <t>The URL pointing to an externally maintained protocol, guideline, orderset or other definition that is adhered to in whole or in part by this ServiceRequest.</t>
+  </si>
+  <si>
+    <t>This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>
+  </si>
+  <si>
+    <t>Request.instantiatesUri</t>
+  </si>
+  <si>
+    <t>ServiceRequest.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan|ServiceRequest|MedicationRequest)
+</t>
+  </si>
+  <si>
+    <t>What request fulfills</t>
+  </si>
+  <si>
+    <t>Plan/proposal/order fulfilled by this request.</t>
+  </si>
+  <si>
+    <t>Request.basedOn</t>
+  </si>
+  <si>
+    <t>ORC.8 (plus others)</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>ServiceRequest.replaces</t>
+  </si>
+  <si>
+    <t>supersedes
+priorrenewed order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(ServiceRequest)
+</t>
+  </si>
+  <si>
+    <t>What request replaces</t>
+  </si>
+  <si>
+    <t>The request takes the place of the referenced completed or terminated request(s).</t>
+  </si>
+  <si>
+    <t>Request.replaces</t>
+  </si>
+  <si>
+    <t>Handled by message location of ORC (ORC.1=RO or RU)</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=RPLC].target</t>
+  </si>
+  <si>
+    <t>ServiceRequest.requisition</t>
+  </si>
+  <si>
+    <t>grouperId
+groupIdentifier</t>
+  </si>
+  <si>
+    <t>Composite Request ID</t>
+  </si>
+  <si>
+    <t>A shared identifier common to all service requests that were authorized more or less simultaneously by a single author, representing the composite or group identifier.</t>
+  </si>
+  <si>
+    <t>Requests are linked either by a "basedOn" relationship (i.e. one request is fulfilling another) or by having a common requisition. Requests that are part of the same requisition are generally treated independently from the perspective of changing their state or maintaining them after initial creation.</t>
+  </si>
+  <si>
+    <t>Some business processes need to know if multiple items were ordered as part of the same "requisition" for billing or other purposes.</t>
+  </si>
+  <si>
+    <t>Request.groupIdentifier</t>
+  </si>
+  <si>
+    <t>ORC.4</t>
+  </si>
+  <si>
+    <t>.inboundRelationship(typeCode=COMP].source[moodCode=INT].identifier</t>
+  </si>
+  <si>
+    <t>ServiceRequest.status</t>
+  </si>
+  <si>
+    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
+  </si>
+  <si>
+    <t>The status of the order.</t>
+  </si>
+  <si>
+    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The status of a service order.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.status</t>
+  </si>
+  <si>
+    <t>ORC.5,RF1-1</t>
+  </si>
+  <si>
+    <t>.status</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Action.currentStatus</t>
+  </si>
+  <si>
+    <t>ServiceRequest.intent</t>
+  </si>
+  <si>
+    <t>proposal | plan | directive | order | original-order | reflex-order | filler-order | instance-order | option</t>
+  </si>
+  <si>
+    <t>Whether the request is a proposal, plan, an original order or a reflex order.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the intent alters when and how the resource is actually applicable.</t>
+  </si>
+  <si>
+    <t>The kind of service request.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-intent|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.intent</t>
+  </si>
+  <si>
+    <t>.moodCode (nuances beyond PRP/PLAN/RQO would need to be elsewhere)</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>ServiceRequest.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Classification of service</t>
+  </si>
+  <si>
+    <t>A code that classifies the service for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
+  </si>
+  <si>
+    <t>There may be multiple axis of categorization depending on the context or use case for retrieving or displaying the resource.  The level of granularity is defined by the category concepts in the value set.</t>
+  </si>
+  <si>
+    <t>Used for filtering what service request are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Classification of the requested service.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/servicerequest-category</t>
+  </si>
+  <si>
+    <t>RF1-5</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="INT"].code</t>
+  </si>
+  <si>
+    <t>ServiceRequest.priority</t>
+  </si>
+  <si>
+    <t>routine | urgent | asap | stat</t>
+  </si>
+  <si>
+    <t>Indicates how quickly the ServiceRequest should be addressed with respect to other requests.</t>
+  </si>
+  <si>
+    <t>If missing, this task should be performed with normal priority</t>
+  </si>
+  <si>
+    <t>Identifies the level of importance to be assigned to actioning the request.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/request-priority|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.priority</t>
+  </si>
+  <si>
+    <t>TQ1.9, RF1-2</t>
+  </si>
+  <si>
+    <t>.priorityCode</t>
+  </si>
+  <si>
+    <t>FiveWs.grade</t>
+  </si>
+  <si>
+    <t>ServiceRequest.doNotPerform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>True if service/procedure should not be performed</t>
+  </si>
+  <si>
+    <t>Set this to true if the record is saying that the service/procedure should NOT be performed.</t>
+  </si>
+  <si>
+    <t>In general, only the code and timeframe will be present, though occasional additional qualifiers such as body site or even performer could be included to narrow the scope of the prohibition.  If the ServiceRequest.code and ServiceRequest.doNotPerform both contain negation, that will reinforce prohibition and should not have a double negative interpretation.</t>
+  </si>
+  <si>
+    <t>Used for do not ambulate, do not elevate head of bed, do not flush NG tube, do not take blood pressure on a certain arm, etc.</t>
+  </si>
+  <si>
+    <t>If missing, the request is a positive request e.g. "do perform"</t>
+  </si>
+  <si>
+    <t>Request.doNotPerform</t>
+  </si>
+  <si>
+    <t>.actionNegationInd</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">service requested
+</t>
+  </si>
+  <si>
+    <t>What is being requested/ordered</t>
+  </si>
+  <si>
+    <t>A code that identifies a particular service (i.e., procedure, diagnostic investigation, or panel of investigations) that have been requested.</t>
+  </si>
+  <si>
+    <t>Many laboratory and radiology procedure codes embed the specimen/organ system in the test order name, for example,  serum or serum/plasma glucose, or a chest x-ray. The specimen might not be recorded separately from the test code.</t>
+  </si>
+  <si>
+    <t>Codes for tests or services that can be carried out by a designated individual, organization or healthcare service.  For laboratory, LOINC is  (preferred)[http://build.fhir.org/terminologies.html#preferred] and a valueset using LOINC Order codes is available [here](valueset-diagnostic-requests.html).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/procedure-code</t>
+  </si>
+  <si>
+    <t>Request.code</t>
+  </si>
+  <si>
+    <t>PR1-3 / OBR-4  (varies by domain)</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>Procedure.procedureCode</t>
+  </si>
+  <si>
+    <t>ServiceRequest.code.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>ServiceRequest.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>ServiceRequest.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>ServiceRequest.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>ServiceRequest.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>ServiceRequest.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>ServiceRequest.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>ServiceRequest.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>ServiceRequest.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Identifiers assigned to this order</t>
-  </si>
-  <si>
-    <t>Identifiers assigned to this order instance by the orderer and/or the receiver and/or order fulfiller.</t>
-  </si>
-  <si>
-    <t>The identifier.type element is used to distinguish between the identifiers assigned by the orderer (known as the 'Placer' in HL7 v2) and the producer of the observations in response to the order (known as the 'Filler' in HL7 v2).  For further discussion and examples see the resource notes section below.</t>
-  </si>
-  <si>
-    <t>Request.identifier</t>
-  </si>
-  <si>
-    <t>ORC.2, ORC.3, RF1-6 / RF1-11,</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>ClinicalStatement.identifier</t>
-  </si>
-  <si>
-    <t>ServiceRequest.instantiatesCanonical</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(ActivityDefinition|PlanDefinition)
-</t>
-  </si>
-  <si>
-    <t>Instantiates FHIR protocol or definition</t>
-  </si>
-  <si>
-    <t>The URL pointing to a FHIR-defined protocol, guideline, orderset or other definition that is adhered to in whole or in part by this ServiceRequest.</t>
-  </si>
-  <si>
-    <t>Note: This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
-  </si>
-  <si>
-    <t>Request.instantiatesCanonical</t>
-  </si>
-  <si>
-    <t>Varies by domain</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=DEFN].target</t>
-  </si>
-  <si>
-    <t>ServiceRequest.instantiatesUri</t>
-  </si>
-  <si>
-    <t>Instantiates external protocol or definition</t>
-  </si>
-  <si>
-    <t>The URL pointing to an externally maintained protocol, guideline, orderset or other definition that is adhered to in whole or in part by this ServiceRequest.</t>
-  </si>
-  <si>
-    <t>This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>
-  </si>
-  <si>
-    <t>Request.instantiatesUri</t>
-  </si>
-  <si>
-    <t>ServiceRequest.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fulfills
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CarePlan|ServiceRequest|MedicationRequest)
-</t>
-  </si>
-  <si>
-    <t>What request fulfills</t>
-  </si>
-  <si>
-    <t>Plan/proposal/order fulfilled by this request.</t>
-  </si>
-  <si>
-    <t>Request.basedOn</t>
-  </si>
-  <si>
-    <t>ORC.8 (plus others)</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>ServiceRequest.replaces</t>
-  </si>
-  <si>
-    <t>supersedes
-priorrenewed order</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(ServiceRequest)
-</t>
-  </si>
-  <si>
-    <t>What request replaces</t>
-  </si>
-  <si>
-    <t>The request takes the place of the referenced completed or terminated request(s).</t>
-  </si>
-  <si>
-    <t>Request.replaces</t>
-  </si>
-  <si>
-    <t>Handled by message location of ORC (ORC.1=RO or RU)</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=RPLC].target</t>
-  </si>
-  <si>
-    <t>ServiceRequest.requisition</t>
-  </si>
-  <si>
-    <t>grouperId
-groupIdentifier</t>
-  </si>
-  <si>
-    <t>Composite Request ID</t>
-  </si>
-  <si>
-    <t>A shared identifier common to all service requests that were authorized more or less simultaneously by a single author, representing the composite or group identifier.</t>
-  </si>
-  <si>
-    <t>Requests are linked either by a "basedOn" relationship (i.e. one request is fulfilling another) or by having a common requisition. Requests that are part of the same requisition are generally treated independently from the perspective of changing their state or maintaining them after initial creation.</t>
-  </si>
-  <si>
-    <t>Some business processes need to know if multiple items were ordered as part of the same "requisition" for billing or other purposes.</t>
-  </si>
-  <si>
-    <t>Request.groupIdentifier</t>
-  </si>
-  <si>
-    <t>ORC.4</t>
-  </si>
-  <si>
-    <t>.inboundRelationship(typeCode=COMP].source[moodCode=INT].identifier</t>
-  </si>
-  <si>
-    <t>ServiceRequest.status</t>
-  </si>
-  <si>
-    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
-  </si>
-  <si>
-    <t>The status of the order.</t>
-  </si>
-  <si>
-    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The status of a service order.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.status</t>
-  </si>
-  <si>
-    <t>ORC.5,RF1-1</t>
-  </si>
-  <si>
-    <t>.status</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Action.currentStatus</t>
-  </si>
-  <si>
-    <t>ServiceRequest.intent</t>
-  </si>
-  <si>
-    <t>proposal | plan | directive | order | original-order | reflex-order | filler-order | instance-order | option</t>
-  </si>
-  <si>
-    <t>Whether the request is a proposal, plan, an original order or a reflex order.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the intent alters when and how the resource is actually applicable.</t>
-  </si>
-  <si>
-    <t>The kind of service request.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-intent|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.intent</t>
-  </si>
-  <si>
-    <t>.moodCode (nuances beyond PRP/PLAN/RQO would need to be elsewhere)</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>ServiceRequest.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Classification of service</t>
-  </si>
-  <si>
-    <t>A code that classifies the service for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
-  </si>
-  <si>
-    <t>There may be multiple axis of categorization depending on the context or use case for retrieving or displaying the resource.  The level of granularity is defined by the category concepts in the value set.</t>
-  </si>
-  <si>
-    <t>Used for filtering what service request are retrieved and displayed.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Classification of the requested service.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/servicerequest-category</t>
-  </si>
-  <si>
-    <t>RF1-5</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="INT"].code</t>
-  </si>
-  <si>
-    <t>ServiceRequest.priority</t>
-  </si>
-  <si>
-    <t>routine | urgent | asap | stat</t>
-  </si>
-  <si>
-    <t>Indicates how quickly the ServiceRequest should be addressed with respect to other requests.</t>
-  </si>
-  <si>
-    <t>If missing, this task should be performed with normal priority</t>
-  </si>
-  <si>
-    <t>Identifies the level of importance to be assigned to actioning the request.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/request-priority|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.priority</t>
-  </si>
-  <si>
-    <t>TQ1.9, RF1-2</t>
-  </si>
-  <si>
-    <t>.priorityCode</t>
-  </si>
-  <si>
-    <t>FiveWs.grade</t>
-  </si>
-  <si>
-    <t>ServiceRequest.doNotPerform</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>True if service/procedure should not be performed</t>
-  </si>
-  <si>
-    <t>Set this to true if the record is saying that the service/procedure should NOT be performed.</t>
-  </si>
-  <si>
-    <t>In general, only the code and timeframe will be present, though occasional additional qualifiers such as body site or even performer could be included to narrow the scope of the prohibition.  If the ServiceRequest.code and ServiceRequest.doNotPerform both contain negation, that will reinforce prohibition and should not have a double negative interpretation.</t>
-  </si>
-  <si>
-    <t>Used for do not ambulate, do not elevate head of bed, do not flush NG tube, do not take blood pressure on a certain arm, etc.</t>
-  </si>
-  <si>
-    <t>If missing, the request is a positive request e.g. "do perform"</t>
-  </si>
-  <si>
-    <t>Request.doNotPerform</t>
-  </si>
-  <si>
-    <t>.actionNegationInd</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service requested
-</t>
-  </si>
-  <si>
-    <t>What is being requested/ordered</t>
-  </si>
-  <si>
-    <t>A code that identifies a particular service (i.e., procedure, diagnostic investigation, or panel of investigations) that have been requested.</t>
-  </si>
-  <si>
-    <t>Many laboratory and radiology procedure codes embed the specimen/organ system in the test order name, for example,  serum or serum/plasma glucose, or a chest x-ray. The specimen might not be recorded separately from the test code.</t>
-  </si>
-  <si>
-    <t>Codes for tests or services that can be carried out by a designated individual, organization or healthcare service.  For laboratory, LOINC is  (preferred)[http://build.fhir.org/terminologies.html#preferred] and a valueset using LOINC Order codes is available [here](valueset-diagnostic-requests.html).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-code</t>
-  </si>
-  <si>
-    <t>Request.code</t>
-  </si>
-  <si>
-    <t>PR1-3 / OBR-4  (varies by domain)</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
-  </si>
-  <si>
-    <t>Procedure.procedureCode</t>
-  </si>
-  <si>
-    <t>ServiceRequest.code.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -4314,13 +4318,13 @@
         <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>87</v>
+        <v>254</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4371,7 +4375,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -4392,7 +4396,7 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -4403,7 +4407,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4432,7 +4436,7 @@
         <v>132</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>134</v>
@@ -4473,19 +4477,19 @@
         <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -4506,7 +4510,7 @@
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
@@ -4517,7 +4521,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4540,19 +4544,19 @@
         <v>86</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>77</v>
@@ -4581,7 +4585,7 @@
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>77</v>
@@ -4599,7 +4603,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -4617,10 +4621,10 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -4631,7 +4635,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4654,19 +4658,19 @@
         <v>86</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>87</v>
+        <v>254</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>77</v>
@@ -4715,7 +4719,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -4733,10 +4737,10 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4747,11 +4751,11 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4773,13 +4777,13 @@
         <v>212</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4808,10 +4812,10 @@
         <v>217</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>77</v>
@@ -4829,7 +4833,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -4838,7 +4842,7 @@
         <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>97</v>
@@ -4847,7 +4851,7 @@
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>250</v>
@@ -4861,7 +4865,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4884,17 +4888,17 @@
         <v>86</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
@@ -4943,7 +4947,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -4961,10 +4965,10 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
@@ -4975,7 +4979,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4998,13 +5002,13 @@
         <v>86</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5055,7 +5059,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>85</v>
@@ -5070,28 +5074,28 @@
         <v>97</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5110,13 +5114,13 @@
         <v>86</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5167,7 +5171,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -5182,28 +5186,28 @@
         <v>97</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5222,13 +5226,13 @@
         <v>86</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5279,7 +5283,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -5294,24 +5298,24 @@
         <v>97</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5334,13 +5338,13 @@
         <v>86</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5370,10 +5374,10 @@
         <v>217</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>77</v>
@@ -5391,7 +5395,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
@@ -5412,22 +5416,22 @@
         <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5446,13 +5450,13 @@
         <v>86</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5503,7 +5507,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -5518,28 +5522,28 @@
         <v>97</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5558,16 +5562,16 @@
         <v>86</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5617,7 +5621,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
@@ -5632,28 +5636,28 @@
         <v>97</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5675,13 +5679,13 @@
         <v>212</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5710,10 +5714,10 @@
         <v>217</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>77</v>
@@ -5731,7 +5735,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -5746,16 +5750,16 @@
         <v>97</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -5763,11 +5767,11 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5786,16 +5790,16 @@
         <v>86</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5845,7 +5849,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -5860,16 +5864,16 @@
         <v>97</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -5877,7 +5881,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5903,10 +5907,10 @@
         <v>212</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5936,10 +5940,10 @@
         <v>217</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>77</v>
@@ -5957,7 +5961,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -5978,10 +5982,10 @@
         <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
@@ -5989,7 +5993,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6012,13 +6016,13 @@
         <v>86</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6069,7 +6073,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -6090,10 +6094,10 @@
         <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
@@ -6101,7 +6105,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6127,13 +6131,13 @@
         <v>212</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6162,10 +6166,10 @@
         <v>217</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>77</v>
@@ -6183,7 +6187,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -6198,16 +6202,16 @@
         <v>97</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6215,7 +6219,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6238,16 +6242,16 @@
         <v>86</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6297,7 +6301,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -6312,16 +6316,16 @@
         <v>97</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>
@@ -6329,7 +6333,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6352,13 +6356,13 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6409,7 +6413,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
@@ -6424,13 +6428,13 @@
         <v>97</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>77</v>
@@ -6441,11 +6445,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6464,16 +6468,16 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6523,7 +6527,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -6538,13 +6542,13 @@
         <v>97</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>77</v>
@@ -6555,7 +6559,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6578,16 +6582,16 @@
         <v>86</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6637,7 +6641,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
@@ -6655,10 +6659,10 @@
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -6669,11 +6673,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6695,16 +6699,16 @@
         <v>212</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>77</v>
@@ -6732,10 +6736,10 @@
         <v>217</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>77</v>
@@ -6753,7 +6757,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
@@ -6771,21 +6775,21 @@
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6808,13 +6812,13 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>46</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6865,7 +6869,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
@@ -6880,24 +6884,24 @@
         <v>97</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6920,13 +6924,13 @@
         <v>86</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>87</v>
+        <v>254</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6977,7 +6981,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
@@ -6995,10 +6999,10 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>77</v>
@@ -7009,7 +7013,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7032,16 +7036,16 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7091,7 +7095,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
@@ -7106,13 +7110,13 @@
         <v>97</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>128</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>77</v>

--- a/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
+++ b/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-20T21:17:20+00:00</t>
+    <t>2022-09-20T21:19:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
+++ b/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="458">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-20T21:19:27+00:00</t>
+    <t>2022-09-20T21:37:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>Mapping: Quality Improvement and Clinical Knowledge (QUICK)</t>
+  </si>
+  <si>
+    <t>Mapping: FHIR HL7 vs OMRS FHIR2</t>
   </si>
   <si>
     <t>diagnostic request
@@ -294,6 +297,9 @@
     <t>Resource.id</t>
   </si>
   <si>
+    <t>uuid</t>
+  </si>
+  <si>
     <t>ServiceRequest.meta</t>
   </si>
   <si>
@@ -799,6 +805,9 @@
     <t>Procedure.procedureCode</t>
   </si>
   <si>
+    <t>ServiceRequest.concept</t>
+  </si>
+  <si>
     <t>ServiceRequest.code.id</t>
   </si>
   <si>
@@ -1185,6 +1194,9 @@
   </si>
   <si>
     <t>.participation[typeCode=PRF].role[scoper.determinerCode=INSTANCE]</t>
+  </si>
+  <si>
+    <t>ServiceRequestt.performer</t>
   </si>
   <si>
     <t>ServiceRequest.locationCode</t>
@@ -1724,7 +1736,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN47"/>
+  <dimension ref="A1:AO47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1773,6 +1785,7 @@
     <col min="38" max="38" width="163.4453125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="66.88671875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="37.4609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1896,6 +1909,9 @@
       <c r="AN1" t="s" s="1">
         <v>73</v>
       </c>
+      <c r="AO1" t="s" s="1">
+        <v>74</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
@@ -1903,5226 +1919,5364 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE2" t="s" s="2">
         <v>27</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO2" t="s" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO3" t="s" s="2">
+        <v>93</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO4" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO5" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO6" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO7" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG8" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="R8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AH8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO8" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AF9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG9" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="R9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AH9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO9" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AF10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG10" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="R10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG10" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AH10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO10" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG11" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="R11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AH11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
+      </c>
+      <c r="AO11" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG12" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="R12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AH12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO12" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG13" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="R13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE13" t="s" s="2">
+      <c r="AH13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AF13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>158</v>
-      </c>
       <c r="AL13" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO13" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG14" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="R14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AH14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO14" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG15" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="R15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AH15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO15" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO16" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
+      </c>
+      <c r="AO17" t="s" s="2">
+        <v>192</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO18" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG19" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="R19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AH19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO19" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P20" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO20" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P21" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="Q21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG21" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="I21" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P21" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="Q21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="AH21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO21" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
+      </c>
+      <c r="AO22" t="s" s="2">
+        <v>255</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO23" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="R24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA24" t="s" s="2">
+      <c r="AH24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="AB24" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>258</v>
-      </c>
       <c r="AM24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO24" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Z25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG25" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AA25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AH25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO25" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO26" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG27" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="R27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AH27" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
+      </c>
+      <c r="AO27" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO28" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
+      </c>
+      <c r="AO29" t="s" s="2">
+        <v>301</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
+      </c>
+      <c r="AO30" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
+      </c>
+      <c r="AO31" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
+      </c>
+      <c r="AO32" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
+      </c>
+      <c r="AO33" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
+      </c>
+      <c r="AO34" t="s" s="2">
+        <v>348</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO35" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG36" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="R36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AH36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO36" t="s" s="2">
+        <v>379</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG37" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="R37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AH37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO37" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG38" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="R38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AH38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO38" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG39" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="R39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AH39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO39" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG40" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="R40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AH40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO40" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG41" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="R41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AH41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO41" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG42" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="R42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AH42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO42" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="R43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AH43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO43" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG44" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="R44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AH44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
+      </c>
+      <c r="AO44" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>46</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG45" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="R45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AH45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
+      </c>
+      <c r="AO45" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO46" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG47" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="R47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AH47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AO47" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
+++ b/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="457">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-20T21:37:06+00:00</t>
+    <t>2022-10-08T01:52:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -257,10 +257,6 @@
   </si>
   <si>
     <t>A record of a request for service such as diagnostic investigations, treatments, or operations to be performed.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}prr-1:orderDetail SHALL only be present if code is present {orderDetail.empty() or code.exists()}</t>
   </si>
   <si>
     <t>Request</t>
@@ -2007,16 +2003,16 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>78</v>
@@ -2030,7 +2026,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2041,28 +2037,28 @@
         <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2112,42 +2108,42 @@
         <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AF3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO3" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AF3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO3" t="s" s="2">
-        <v>93</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2158,25 +2154,25 @@
         <v>76</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2227,19 +2223,19 @@
         <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>78</v>
@@ -2262,7 +2258,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2273,28 +2269,28 @@
         <v>76</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2344,19 +2340,19 @@
         <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>78</v>
@@ -2379,7 +2375,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2390,7 +2386,7 @@
         <v>76</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>78</v>
@@ -2402,16 +2398,16 @@
         <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2437,43 +2433,43 @@
         <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>78</v>
@@ -2496,18 +2492,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>78</v>
@@ -2519,16 +2515,16 @@
         <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2578,28 +2574,28 @@
         <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>78</v>
@@ -2613,11 +2609,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2636,16 +2632,16 @@
         <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2695,7 +2691,7 @@
         <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>76</v>
@@ -2716,7 +2712,7 @@
         <v>78</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>78</v>
@@ -2730,11 +2726,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2753,16 +2749,16 @@
         <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2812,7 +2808,7 @@
         <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>76</v>
@@ -2824,7 +2820,7 @@
         <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>78</v>
@@ -2833,7 +2829,7 @@
         <v>78</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>78</v>
@@ -2847,11 +2843,11 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2864,25 +2860,25 @@
         <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>78</v>
@@ -2931,7 +2927,7 @@
         <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>76</v>
@@ -2943,7 +2939,7 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>78</v>
@@ -2952,7 +2948,7 @@
         <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>78</v>
@@ -2966,7 +2962,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2986,19 +2982,19 @@
         <v>78</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -3048,7 +3044,7 @@
         <v>78</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>76</v>
@@ -3060,22 +3056,22 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AL11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>78</v>
@@ -3083,7 +3079,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3103,19 +3099,19 @@
         <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -3165,7 +3161,7 @@
         <v>78</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>76</v>
@@ -3177,16 +3173,16 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="AK12" t="s" s="2">
+      <c r="AL12" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>78</v>
@@ -3200,7 +3196,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3220,19 +3216,19 @@
         <v>78</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3282,7 +3278,7 @@
         <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>76</v>
@@ -3294,16 +3290,16 @@
         <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>78</v>
@@ -3317,11 +3313,11 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3337,16 +3333,16 @@
         <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3397,7 +3393,7 @@
         <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>76</v>
@@ -3409,16 +3405,16 @@
         <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AK14" t="s" s="2">
+      <c r="AL14" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>78</v>
@@ -3432,11 +3428,11 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3452,16 +3448,16 @@
         <v>78</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3512,7 +3508,7 @@
         <v>78</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>76</v>
@@ -3524,16 +3520,16 @@
         <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>78</v>
@@ -3547,42 +3543,42 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F16" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>78</v>
@@ -3631,28 +3627,28 @@
         <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>78</v>
@@ -3666,7 +3662,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3674,31 +3670,31 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H17" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="I17" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J17" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3724,66 +3720,66 @@
         <v>78</v>
       </c>
       <c r="W17" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="X17" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="X17" t="s" s="2">
+      <c r="Y17" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Z17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
+      <c r="AK17" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="AN17" t="s" s="2">
-        <v>203</v>
-      </c>
       <c r="AO17" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3791,31 +3787,31 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H18" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="I18" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J18" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3841,55 +3837,55 @@
         <v>78</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X18" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Y18" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="Y18" t="s" s="2">
+      <c r="Z18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="Z18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
+      <c r="AK18" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AK18" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>78</v>
@@ -3900,7 +3896,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3920,22 +3916,22 @@
         <v>78</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>78</v>
@@ -3960,14 +3956,14 @@
         <v>78</v>
       </c>
       <c r="W19" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="X19" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="X19" t="s" s="2">
+      <c r="Y19" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="Y19" t="s" s="2">
-        <v>221</v>
-      </c>
       <c r="Z19" t="s" s="2">
         <v>78</v>
       </c>
@@ -3984,7 +3980,7 @@
         <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>76</v>
@@ -3996,19 +3992,19 @@
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AL19" t="s" s="2">
-        <v>223</v>
-      </c>
       <c r="AM19" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>78</v>
@@ -4019,7 +4015,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4030,25 +4026,25 @@
         <v>76</v>
       </c>
       <c r="F20" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J20" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4056,76 +4052,76 @@
         <v>78</v>
       </c>
       <c r="P20" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="Q20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="X20" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="Q20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="X20" t="s" s="2">
+      <c r="Y20" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="Y20" t="s" s="2">
+      <c r="Z20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="Z20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
+      <c r="AK20" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>78</v>
@@ -4136,7 +4132,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4147,103 +4143,103 @@
         <v>76</v>
       </c>
       <c r="F21" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H21" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="I21" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="N21" t="s" s="2">
+      <c r="O21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P21" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="O21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P21" t="s" s="2">
+      <c r="Q21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="Q21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
+      <c r="AK21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>78</v>
@@ -4257,39 +4253,39 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I22" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F22" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J22" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4315,66 +4311,66 @@
         <v>78</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="X22" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="Y22" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="Y22" t="s" s="2">
+      <c r="Z22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="Z22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
+      <c r="AK22" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AN22" t="s" s="2">
+      <c r="AO22" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>255</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4385,7 +4381,7 @@
         <v>76</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>78</v>
@@ -4397,13 +4393,13 @@
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4454,28 +4450,28 @@
         <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>78</v>
@@ -4489,11 +4485,11 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4512,16 +4508,16 @@
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="K24" t="s" s="2">
-        <v>134</v>
-      </c>
       <c r="L24" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4559,19 +4555,19 @@
         <v>78</v>
       </c>
       <c r="AA24" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AB24" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="AB24" t="s" s="2">
+      <c r="AC24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD24" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="AC24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD24" t="s" s="2">
+      <c r="AE24" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>76</v>
@@ -4583,7 +4579,7 @@
         <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>78</v>
@@ -4592,7 +4588,7 @@
         <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>78</v>
@@ -4606,7 +4602,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4614,7 +4610,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>77</v>
@@ -4626,22 +4622,22 @@
         <v>78</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>78</v>
@@ -4666,29 +4662,29 @@
         <v>78</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE25" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>76</v>
@@ -4700,16 +4696,16 @@
         <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>78</v>
@@ -4723,7 +4719,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4734,31 +4730,31 @@
         <v>76</v>
       </c>
       <c r="F26" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I26" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J26" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>78</v>
@@ -4807,28 +4803,28 @@
         <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AF26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AL26" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>78</v>
@@ -4842,11 +4838,11 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4862,19 +4858,19 @@
         <v>78</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4900,14 +4896,14 @@
         <v>78</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="X27" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="Y27" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="Y27" t="s" s="2">
-        <v>292</v>
-      </c>
       <c r="Z27" t="s" s="2">
         <v>78</v>
       </c>
@@ -4924,7 +4920,7 @@
         <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>76</v>
@@ -4933,25 +4929,25 @@
         <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="AI27" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>294</v>
-      </c>
       <c r="AL27" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>78</v>
@@ -4959,7 +4955,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4970,29 +4966,29 @@
         <v>76</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J28" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>78</v>
@@ -5041,28 +5037,28 @@
         <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>78</v>
@@ -5076,7 +5072,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5084,28 +5080,28 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="F29" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J29" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5156,71 +5152,71 @@
         <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AL29" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AN29" t="s" s="2">
-        <v>309</v>
-      </c>
       <c r="AO29" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F30" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J30" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5271,34 +5267,34 @@
         <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AK30" t="s" s="2">
+      <c r="AL30" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>78</v>
@@ -5306,36 +5302,36 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F31" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J31" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5386,34 +5382,34 @@
         <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AL31" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>78</v>
@@ -5421,7 +5417,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5432,25 +5428,25 @@
         <v>76</v>
       </c>
       <c r="F32" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I32" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J32" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5477,58 +5473,58 @@
         <v>78</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="X32" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="Y32" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="Y32" t="s" s="2">
+      <c r="Z32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="Z32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>78</v>
@@ -5536,36 +5532,36 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F33" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J33" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5616,34 +5612,34 @@
         <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>78</v>
@@ -5651,39 +5647,39 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F34" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I34" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J34" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5733,74 +5729,74 @@
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AL34" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="AN34" t="s" s="2">
-        <v>358</v>
-      </c>
       <c r="AO34" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F35" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J35" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5826,55 +5822,55 @@
         <v>78</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="X35" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="Y35" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="Y35" t="s" s="2">
+      <c r="Z35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="Z35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
+      <c r="AK35" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="AK35" t="s" s="2">
+      <c r="AL35" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>78</v>
@@ -5885,11 +5881,11 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5905,19 +5901,19 @@
         <v>78</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5967,7 +5963,7 @@
         <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>76</v>
@@ -5979,30 +5975,30 @@
         <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO36" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>379</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6022,16 +6018,16 @@
         <v>78</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6058,14 +6054,14 @@
         <v>78</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="X37" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="Y37" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="Y37" t="s" s="2">
-        <v>384</v>
-      </c>
       <c r="Z37" t="s" s="2">
         <v>78</v>
       </c>
@@ -6082,7 +6078,7 @@
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>76</v>
@@ -6094,7 +6090,7 @@
         <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>78</v>
@@ -6103,10 +6099,10 @@
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>78</v>
@@ -6117,7 +6113,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6137,16 +6133,16 @@
         <v>78</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6197,7 +6193,7 @@
         <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>76</v>
@@ -6209,7 +6205,7 @@
         <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>78</v>
@@ -6218,10 +6214,10 @@
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>78</v>
@@ -6232,7 +6228,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6252,19 +6248,19 @@
         <v>78</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6290,14 +6286,14 @@
         <v>78</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="X39" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="Y39" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="Y39" t="s" s="2">
-        <v>395</v>
-      </c>
       <c r="Z39" t="s" s="2">
         <v>78</v>
       </c>
@@ -6314,7 +6310,7 @@
         <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>76</v>
@@ -6326,19 +6322,19 @@
         <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="AK39" t="s" s="2">
+      <c r="AL39" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>78</v>
@@ -6349,7 +6345,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6369,19 +6365,19 @@
         <v>78</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6431,7 +6427,7 @@
         <v>78</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>76</v>
@@ -6443,19 +6439,19 @@
         <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="AK40" t="s" s="2">
+      <c r="AL40" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="AL40" t="s" s="2">
-        <v>407</v>
-      </c>
       <c r="AM40" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>78</v>
@@ -6466,7 +6462,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6489,13 +6485,13 @@
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6546,7 +6542,7 @@
         <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>76</v>
@@ -6558,16 +6554,16 @@
         <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="AK41" t="s" s="2">
+      <c r="AL41" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>78</v>
@@ -6581,11 +6577,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6604,16 +6600,16 @@
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6663,7 +6659,7 @@
         <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>76</v>
@@ -6675,16 +6671,16 @@
         <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AK42" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="AK42" t="s" s="2">
+      <c r="AL42" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>78</v>
@@ -6698,7 +6694,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6718,19 +6714,19 @@
         <v>78</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6780,7 +6776,7 @@
         <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>76</v>
@@ -6792,16 +6788,16 @@
         <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>78</v>
@@ -6815,11 +6811,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6835,22 +6831,22 @@
         <v>78</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>78</v>
@@ -6875,14 +6871,14 @@
         <v>78</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="X44" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="Y44" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="Y44" t="s" s="2">
-        <v>438</v>
-      </c>
       <c r="Z44" t="s" s="2">
         <v>78</v>
       </c>
@@ -6899,7 +6895,7 @@
         <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>76</v>
@@ -6911,22 +6907,22 @@
         <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AL44" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>78</v>
@@ -6934,7 +6930,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6957,13 +6953,13 @@
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>46</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7014,7 +7010,7 @@
         <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>76</v>
@@ -7026,22 +7022,22 @@
         <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="AK45" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>78</v>
@@ -7049,7 +7045,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7060,25 +7056,25 @@
         <v>76</v>
       </c>
       <c r="F46" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I46" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="G46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="J46" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>449</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7129,28 +7125,28 @@
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>78</v>
@@ -7164,7 +7160,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7187,16 +7183,16 @@
         <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7246,7 +7242,7 @@
         <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>76</v>
@@ -7258,16 +7254,16 @@
         <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>78</v>

--- a/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
+++ b/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T01:52:10+00:00</t>
+    <t>2022-10-08T02:01:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
+++ b/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:01:28+00:00</t>
+    <t>2022-10-08T02:02:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
+++ b/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:02:22+00:00</t>
+    <t>2022-10-08T02:02:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
+++ b/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:02:45+00:00</t>
+    <t>2022-10-08T02:04:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
+++ b/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:04:28+00:00</t>
+    <t>2022-10-08T02:06:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
+++ b/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:06:31+00:00</t>
+    <t>2022-10-08T02:08:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
+++ b/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:08:40+00:00</t>
+    <t>2022-10-08T02:09:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
+++ b/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:09:14+00:00</t>
+    <t>2022-10-08T02:10:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
+++ b/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="458">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:10:18+00:00</t>
+    <t>2022-10-08T02:12:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -293,7 +293,7 @@
     <t>Resource.id</t>
   </si>
   <si>
-    <t>uuid</t>
+    <t>TestOrder.uuid</t>
   </si>
   <si>
     <t>ServiceRequest.meta</t>
@@ -536,7 +536,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|ServiceRequest|MedicationRequest)
+    <t xml:space="preserve">Reference(http://fhir.openmrs.org/fhir/StructureDefinition/OpenMRS-service-request)
 </t>
   </si>
   <si>
@@ -562,10 +562,6 @@
 priorrenewed order</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ServiceRequest)
-</t>
-  </si>
-  <si>
     <t>What request replaces</t>
   </si>
   <si>
@@ -645,6 +641,9 @@
     <t>Action.currentStatus</t>
   </si>
   <si>
+    <t>ServiceRequest.ServiceRequestStatus</t>
+  </si>
+  <si>
     <t>ServiceRequest.intent</t>
   </si>
   <si>
@@ -801,7 +800,7 @@
     <t>Procedure.procedureCode</t>
   </si>
   <si>
-    <t>ServiceRequest.concept</t>
+    <t>TestOrder.concept</t>
   </si>
   <si>
     <t>ServiceRequest.code.id</t>
@@ -973,6 +972,9 @@
     <t>ClinicalStatement.subject</t>
   </si>
   <si>
+    <t>TestOrder.patient</t>
+  </si>
+  <si>
     <t>ServiceRequest.encounter</t>
   </si>
   <si>
@@ -1037,6 +1039,9 @@
     <t>Procedure.procedureSchedule</t>
   </si>
   <si>
+    <t>TestOrder.effectiveEndDate</t>
+  </si>
+  <si>
     <t>ServiceRequest.asNeeded[x]</t>
   </si>
   <si>
@@ -1101,7 +1106,7 @@
 orderer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|RelatedPerson|Device)
+    <t xml:space="preserve">Reference(http://fhir.openmrs.org/fhir/StructureDefinition/omrs-practitioner)
 </t>
   </si>
   <si>
@@ -1170,10 +1175,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|HealthcareService|Patient|Device|RelatedPerson)
-</t>
-  </si>
-  <si>
     <t>Requested performer</t>
   </si>
   <si>
@@ -1192,7 +1193,7 @@
     <t>.participation[typeCode=PRF].role[scoper.determinerCode=INSTANCE]</t>
   </si>
   <si>
-    <t>ServiceRequestt.performer</t>
+    <t>Task.owner</t>
   </si>
   <si>
     <t>ServiceRequest.locationCode</t>
@@ -3090,7 +3091,7 @@
         <v>76</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>78</v>
@@ -3207,7 +3208,7 @@
         <v>76</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>78</v>
@@ -3451,13 +3452,13 @@
         <v>86</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3523,13 +3524,13 @@
         <v>98</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>78</v>
@@ -3543,18 +3544,18 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>78</v>
@@ -3569,16 +3570,16 @@
         <v>144</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>78</v>
@@ -3627,7 +3628,7 @@
         <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>76</v>
@@ -3642,13 +3643,13 @@
         <v>98</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>78</v>
@@ -3662,7 +3663,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3688,13 +3689,13 @@
         <v>106</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3720,14 +3721,14 @@
         <v>78</v>
       </c>
       <c r="W17" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="X17" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="X17" t="s" s="2">
+      <c r="Y17" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="Y17" t="s" s="2">
-        <v>197</v>
-      </c>
       <c r="Z17" t="s" s="2">
         <v>78</v>
       </c>
@@ -3744,7 +3745,7 @@
         <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>85</v>
@@ -3759,22 +3760,22 @@
         <v>98</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>191</v>
       </c>
     </row>
     <row r="18">
@@ -3837,7 +3838,7 @@
         <v>78</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="X18" t="s" s="2">
         <v>207</v>
@@ -3907,7 +3908,7 @@
         <v>76</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>78</v>
@@ -4026,7 +4027,7 @@
         <v>76</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>78</v>
@@ -4073,7 +4074,7 @@
         <v>78</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="X20" t="s" s="2">
         <v>227</v>
@@ -4143,7 +4144,7 @@
         <v>76</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>78</v>
@@ -4662,7 +4663,7 @@
         <v>78</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
@@ -4849,7 +4850,7 @@
         <v>76</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>78</v>
@@ -4966,7 +4967,7 @@
         <v>76</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>78</v>
@@ -5182,16 +5183,16 @@
         <v>308</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>300</v>
+        <v>309</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5210,13 +5211,13 @@
         <v>86</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5267,7 +5268,7 @@
         <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>76</v>
@@ -5282,19 +5283,19 @@
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>78</v>
@@ -5302,11 +5303,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5325,13 +5326,13 @@
         <v>86</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5382,7 +5383,7 @@
         <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>76</v>
@@ -5397,27 +5398,27 @@
         <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>78</v>
+        <v>330</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5428,7 +5429,7 @@
         <v>76</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>78</v>
@@ -5440,13 +5441,13 @@
         <v>86</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5476,10 +5477,10 @@
         <v>218</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>78</v>
@@ -5497,7 +5498,7 @@
         <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>76</v>
@@ -5518,13 +5519,13 @@
         <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>78</v>
@@ -5532,18 +5533,18 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>78</v>
@@ -5555,13 +5556,13 @@
         <v>86</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5612,7 +5613,7 @@
         <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>76</v>
@@ -5627,19 +5628,19 @@
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>78</v>
@@ -5647,15 +5648,15 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>85</v>
@@ -5670,16 +5671,16 @@
         <v>86</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5729,7 +5730,7 @@
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>76</v>
@@ -5744,38 +5745,38 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>78</v>
@@ -5790,13 +5791,13 @@
         <v>213</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5825,10 +5826,10 @@
         <v>218</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>78</v>
@@ -5846,7 +5847,7 @@
         <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>76</v>
@@ -5861,16 +5862,16 @@
         <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>78</v>
@@ -5881,11 +5882,11 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5904,16 +5905,16 @@
         <v>86</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>371</v>
+        <v>301</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5963,7 +5964,7 @@
         <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>76</v>
@@ -5978,27 +5979,27 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6009,7 +6010,7 @@
         <v>76</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>78</v>
@@ -6024,10 +6025,10 @@
         <v>213</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6057,10 +6058,10 @@
         <v>218</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>78</v>
@@ -6078,7 +6079,7 @@
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>76</v>
@@ -6099,10 +6100,10 @@
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>78</v>
@@ -6113,7 +6114,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6124,7 +6125,7 @@
         <v>76</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>78</v>
@@ -6136,13 +6137,13 @@
         <v>86</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6193,7 +6194,7 @@
         <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>76</v>
@@ -6214,10 +6215,10 @@
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>78</v>
@@ -6228,7 +6229,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6239,7 +6240,7 @@
         <v>76</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>78</v>
@@ -6254,13 +6255,13 @@
         <v>213</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6289,10 +6290,10 @@
         <v>218</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>78</v>
@@ -6310,7 +6311,7 @@
         <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>76</v>
@@ -6325,16 +6326,16 @@
         <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>78</v>
@@ -6345,7 +6346,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6356,7 +6357,7 @@
         <v>76</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>78</v>
@@ -6368,16 +6369,16 @@
         <v>86</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6427,7 +6428,7 @@
         <v>78</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>76</v>
@@ -6442,16 +6443,16 @@
         <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>78</v>
@@ -6462,7 +6463,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6473,7 +6474,7 @@
         <v>76</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>78</v>
@@ -6485,13 +6486,13 @@
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6542,7 +6543,7 @@
         <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>76</v>
@@ -6557,13 +6558,13 @@
         <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>78</v>
@@ -6577,18 +6578,18 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>78</v>
@@ -6600,16 +6601,16 @@
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6659,7 +6660,7 @@
         <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>76</v>
@@ -6674,13 +6675,13 @@
         <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>78</v>
@@ -6694,7 +6695,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6705,7 +6706,7 @@
         <v>76</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>78</v>
@@ -6717,16 +6718,16 @@
         <v>86</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6776,7 +6777,7 @@
         <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>76</v>
@@ -6794,10 +6795,10 @@
         <v>78</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>78</v>
@@ -6811,18 +6812,18 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>78</v>
@@ -6837,16 +6838,16 @@
         <v>213</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>78</v>
@@ -6874,10 +6875,10 @@
         <v>218</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>78</v>
@@ -6895,7 +6896,7 @@
         <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>76</v>
@@ -6913,16 +6914,16 @@
         <v>78</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>78</v>
@@ -6930,7 +6931,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6941,7 +6942,7 @@
         <v>76</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>78</v>
@@ -6953,13 +6954,13 @@
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>46</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7010,7 +7011,7 @@
         <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>76</v>
@@ -7025,19 +7026,19 @@
         <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>293</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>78</v>
@@ -7045,7 +7046,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7056,7 +7057,7 @@
         <v>76</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>78</v>
@@ -7071,10 +7072,10 @@
         <v>256</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7125,7 +7126,7 @@
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>76</v>
@@ -7146,7 +7147,7 @@
         <v>293</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>78</v>
@@ -7160,7 +7161,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7171,7 +7172,7 @@
         <v>76</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>78</v>
@@ -7183,16 +7184,16 @@
         <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7242,7 +7243,7 @@
         <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>76</v>
@@ -7257,13 +7258,13 @@
         <v>98</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>129</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>78</v>

--- a/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
+++ b/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:12:18+00:00</t>
+    <t>2022-10-08T02:13:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
+++ b/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:13:28+00:00</t>
+    <t>2022-10-08T02:14:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
+++ b/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T02:14:23+00:00</t>
+    <t>2022-11-29T17:06:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
+++ b/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1816" uniqueCount="460">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T17:06:49+00:00</t>
+    <t>2023-03-09T17:04:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Path</t>
@@ -251,6 +254,10 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>A request for a service to be performed</t>
@@ -1733,7 +1740,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO47"/>
+  <dimension ref="A1:AP47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1743,46 +1750,46 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="35.71484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="35.71484375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="92.15625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="78.9765625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="67.80078125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="35.71484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="67.80078125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="35.71484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="85.41796875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="163.4453125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="66.88671875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="37.4609375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="85.41796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="163.4453125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="66.88671875" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="37.4609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1909,19 +1916,22 @@
       <c r="AO1" t="s" s="1">
         <v>74</v>
       </c>
+      <c r="AP1" t="s" s="1">
+        <v>75</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
+      <c r="B2" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
         <v>76</v>
       </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
         <v>77</v>
       </c>
@@ -1929,73 +1939,73 @@
         <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="M2" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="M2" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF2" t="s" s="2">
         <v>27</v>
-      </c>
-      <c r="AF2" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>77</v>
@@ -2004,622 +2014,640 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP2" t="s" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J3" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K3" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="L3" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="M3" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q3" s="2"/>
+      <c r="R3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF3" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="K3" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE3" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AF3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AI3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>92</v>
+        <v>79</v>
+      </c>
+      <c r="AP3" t="s" s="2">
+        <v>94</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="M4" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="M4" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP4" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N5" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF5" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="K5" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG5" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI5" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ5" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AK5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP5" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N6" s="2"/>
-      <c r="O6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="N6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP6" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="N7" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP7" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>77</v>
       </c>
@@ -2627,75 +2655,75 @@
         <v>78</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N8" s="2"/>
-      <c r="O8" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
@@ -2704,39 +2732,42 @@
         <v>78</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP8" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
         <v>77</v>
       </c>
@@ -2744,75 +2775,75 @@
         <v>78</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N9" s="2"/>
-      <c r="O9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -2821,39 +2852,42 @@
         <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP9" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>77</v>
       </c>
@@ -2861,77 +2895,77 @@
         <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="P10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -2940,39 +2974,42 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP10" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2980,75 +3017,75 @@
         <v>78</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF11" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -3057,115 +3094,118 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>78</v>
+        <v>154</v>
+      </c>
+      <c r="AP11" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF12" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -3174,115 +3214,118 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP12" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -3291,39 +3334,42 @@
         <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>165</v>
+        <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP13" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>77</v>
       </c>
@@ -3331,73 +3377,73 @@
         <v>78</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="K14" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3406,39 +3452,42 @@
         <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>171</v>
+        <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP14" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>77</v>
       </c>
@@ -3446,73 +3495,73 @@
         <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>168</v>
+        <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q15" s="2"/>
+      <c r="R15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF15" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3521,470 +3570,482 @@
         <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP15" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="P16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q16" s="2"/>
+      <c r="R16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L16" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AG16" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP16" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" t="s" s="2">
-        <v>85</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>191</v>
+        <v>108</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="O17" s="2"/>
+      <c r="P17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q17" s="2"/>
+      <c r="R17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M17" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="AG17" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="AP17" t="s" s="2">
+        <v>204</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" t="s" s="2">
-        <v>85</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>204</v>
+        <v>108</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q18" s="2"/>
+      <c r="R18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M18" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="AG18" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>209</v>
+        <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>129</v>
+        <v>211</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>210</v>
+        <v>131</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP18" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>213</v>
+        <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="P19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q19" s="2"/>
+      <c r="R19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3993,509 +4054,524 @@
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>221</v>
+        <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP19" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>224</v>
+        <v>108</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q20" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="R20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF20" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P20" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="Q20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AG20" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>229</v>
+        <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>78</v>
+        <v>234</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP20" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>234</v>
+        <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="P21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q21" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF21" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L21" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P21" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="Q21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AG21" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>78</v>
+        <v>242</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>78</v>
+        <v>243</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP21" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" t="s" s="2">
-        <v>85</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>213</v>
+        <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="O22" s="2"/>
+      <c r="P22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q22" s="2"/>
+      <c r="R22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="L22" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AG22" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>249</v>
+        <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
+      </c>
+      <c r="AP22" t="s" s="2">
+        <v>256</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>256</v>
+        <v>79</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="O23" s="2"/>
+      <c r="P23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>259</v>
+        <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>76</v>
+        <v>261</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>260</v>
+        <v>79</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>78</v>
+        <v>262</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP23" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>77</v>
       </c>
@@ -4503,75 +4579,75 @@
         <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>262</v>
+        <v>135</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>263</v>
+        <v>79</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>78</v>
+        <v>266</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>265</v>
+        <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>76</v>
+        <v>268</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4580,115 +4656,118 @@
         <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>260</v>
+        <v>79</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>78</v>
+        <v>262</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP24" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" t="s" s="2">
-        <v>85</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>268</v>
+        <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="P25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="X25" s="2"/>
-      <c r="Y25" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>78</v>
+        <v>275</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>274</v>
+        <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>76</v>
+        <v>276</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4697,1201 +4776,1234 @@
         <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>275</v>
+        <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>78</v>
+        <v>278</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP25" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>256</v>
+        <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="P26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>282</v>
+        <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>76</v>
+        <v>284</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>283</v>
+        <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>78</v>
+        <v>286</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP26" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="O27" s="2"/>
+      <c r="P27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q27" s="2"/>
+      <c r="R27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH27" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="H27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="J27" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="K27" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>292</v>
-      </c>
       <c r="AI27" t="s" s="2">
-        <v>98</v>
+        <v>294</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>293</v>
+        <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>251</v>
+        <v>295</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>78</v>
+        <v>253</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>253</v>
+        <v>79</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>78</v>
+        <v>255</v>
+      </c>
+      <c r="AP27" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="P28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q28" s="2"/>
+      <c r="R28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="K28" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>299</v>
-      </c>
       <c r="AM28" t="s" s="2">
-        <v>78</v>
+        <v>301</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP28" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" t="s" s="2">
-        <v>85</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>301</v>
+        <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q29" s="2"/>
+      <c r="R29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF29" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="L29" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="AG29" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>304</v>
+        <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
+      </c>
+      <c r="AP29" t="s" s="2">
+        <v>311</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q30" s="2"/>
+      <c r="R30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="K30" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P30" s="2"/>
-      <c r="Q30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AG30" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>315</v>
+        <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>78</v>
+        <v>321</v>
+      </c>
+      <c r="AP30" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q31" s="2"/>
+      <c r="R31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF31" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="K31" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AG31" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>325</v>
+        <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
+      </c>
+      <c r="AP31" t="s" s="2">
+        <v>332</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>332</v>
+        <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q32" s="2"/>
+      <c r="R32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF32" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="L32" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AG32" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>337</v>
+        <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>78</v>
+        <v>339</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>338</v>
+        <v>79</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>78</v>
+        <v>340</v>
+      </c>
+      <c r="AP32" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q33" s="2"/>
+      <c r="R33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF33" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="K33" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AG33" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>344</v>
+        <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>78</v>
+        <v>350</v>
+      </c>
+      <c r="AP33" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" t="s" s="2">
-        <v>85</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="O34" s="2"/>
+      <c r="P34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q34" s="2"/>
+      <c r="R34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF34" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="K34" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P34" s="2"/>
-      <c r="Q34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AG34" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>355</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>349</v>
+        <v>361</v>
+      </c>
+      <c r="AP34" t="s" s="2">
+        <v>351</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>213</v>
+        <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="O35" s="2"/>
+      <c r="P35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q35" s="2"/>
+      <c r="R35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF35" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="L35" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P35" s="2"/>
-      <c r="Q35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AG35" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>367</v>
+        <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>78</v>
+        <v>372</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP35" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>77</v>
       </c>
@@ -5899,75 +6011,75 @@
         <v>78</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>301</v>
+        <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="O36" s="2"/>
+      <c r="P36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q36" s="2"/>
+      <c r="R36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF36" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P36" s="2"/>
-      <c r="Q36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5976,113 +6088,116 @@
         <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>376</v>
+        <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>78</v>
+        <v>372</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>379</v>
+        <v>79</v>
+      </c>
+      <c r="AP36" t="s" s="2">
+        <v>381</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>213</v>
+        <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>381</v>
+        <v>215</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q37" s="2"/>
+      <c r="R37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF37" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P37" s="2"/>
-      <c r="Q37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -6091,113 +6206,116 @@
         <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>385</v>
+        <v>79</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>78</v>
+        <v>372</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP37" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>387</v>
+        <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q38" s="2"/>
+      <c r="R38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF38" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P38" s="2"/>
-      <c r="Q38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6206,115 +6324,118 @@
         <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>389</v>
+        <v>79</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>370</v>
+        <v>391</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>78</v>
+        <v>372</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP38" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>213</v>
+        <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>391</v>
+        <v>215</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="O39" s="2"/>
+      <c r="P39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q39" s="2"/>
+      <c r="R39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF39" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P39" s="2"/>
-      <c r="Q39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6323,115 +6444,118 @@
         <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>396</v>
+        <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>78</v>
+        <v>401</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP39" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>401</v>
+        <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="O40" s="2"/>
+      <c r="P40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF40" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P40" s="2"/>
-      <c r="Q40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6440,113 +6564,116 @@
         <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>405</v>
+        <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>78</v>
+        <v>401</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP40" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>409</v>
+        <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF41" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P41" s="2"/>
-      <c r="Q41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6555,115 +6682,118 @@
         <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>412</v>
+        <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>78</v>
+        <v>416</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP41" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="O42" s="2"/>
+      <c r="P42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF42" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P42" s="2"/>
-      <c r="Q42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6672,115 +6802,118 @@
         <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>421</v>
+        <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>78</v>
+        <v>425</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP42" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>425</v>
+        <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="O43" s="2"/>
+      <c r="P43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF43" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P43" s="2"/>
-      <c r="Q43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6789,117 +6922,120 @@
         <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>429</v>
+        <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>78</v>
+        <v>432</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP43" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>213</v>
+        <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="P44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF44" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P44" s="2"/>
-      <c r="Q44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6908,113 +7044,116 @@
         <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>429</v>
+        <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>78</v>
+        <v>441</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>440</v>
+        <v>79</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>78</v>
+        <v>442</v>
+      </c>
+      <c r="AP44" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>442</v>
+        <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>46</v>
+        <v>444</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF45" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P45" s="2"/>
-      <c r="Q45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -7023,230 +7162,236 @@
         <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>444</v>
+        <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>293</v>
+        <v>446</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>445</v>
+        <v>295</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>78</v>
+        <v>447</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>446</v>
+        <v>79</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>78</v>
+        <v>448</v>
+      </c>
+      <c r="AP45" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>256</v>
+        <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>448</v>
+        <v>258</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF46" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P46" s="2"/>
-      <c r="Q46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AG46" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>293</v>
+        <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>450</v>
+        <v>295</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>78</v>
+        <v>452</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP46" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>452</v>
+        <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="O47" s="2"/>
+      <c r="P47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF47" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P47" s="2"/>
-      <c r="Q47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7255,25 +7400,28 @@
         <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>456</v>
+        <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>129</v>
+        <v>458</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>457</v>
+        <v>131</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>78</v>
+        <v>459</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="AP47" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
+++ b/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T17:04:20+00:00</t>
+    <t>2023-03-15T20:21:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
+++ b/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T20:21:30+00:00</t>
+    <t>2023-03-15T20:24:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
+++ b/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T20:24:20+00:00</t>
+    <t>2023-03-15T20:24:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
+++ b/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T20:24:19+00:00</t>
+    <t>2023-03-16T09:46:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>87</v>
@@ -3134,7 +3134,7 @@
         <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>79</v>
@@ -3254,7 +3254,7 @@
         <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>79</v>
@@ -3610,7 +3610,7 @@
         <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>79</v>
@@ -3972,7 +3972,7 @@
         <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>79</v>
@@ -4094,7 +4094,7 @@
         <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>79</v>
@@ -4214,7 +4214,7 @@
         <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>79</v>
@@ -4938,7 +4938,7 @@
         <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>79</v>
@@ -5058,7 +5058,7 @@
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>79</v>
@@ -5532,7 +5532,7 @@
         <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>79</v>
@@ -5650,7 +5650,7 @@
         <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>79</v>
@@ -5888,7 +5888,7 @@
         <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>79</v>
@@ -6128,7 +6128,7 @@
         <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
@@ -6246,7 +6246,7 @@
         <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6364,7 +6364,7 @@
         <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6484,7 +6484,7 @@
         <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
@@ -6604,7 +6604,7 @@
         <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
@@ -6722,7 +6722,7 @@
         <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>79</v>
@@ -6842,7 +6842,7 @@
         <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
@@ -6962,7 +6962,7 @@
         <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
@@ -7084,7 +7084,7 @@
         <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
@@ -7202,7 +7202,7 @@
         <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>79</v>
@@ -7320,7 +7320,7 @@
         <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>

--- a/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
+++ b/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T09:46:21+00:00</t>
+    <t>2023-03-16T13:05:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
+++ b/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T13:05:08+00:00</t>
+    <t>2023-03-20T20:26:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
+++ b/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-20T20:26:34+00:00</t>
+    <t>2023-05-01T15:55:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
+++ b/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.openmrs.org/fhir/StructureDefinition/OpenMRS-service-request</t>
+    <t>http://fhir.openmrs.org/core/StructureDefinition/OpenMRS-service-request</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-01T15:55:39+00:00</t>
+    <t>2023-05-08T19:25:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve"> Service Request Resource is represents a request for some type of procedure or diagnostic test to be performed. When fulfilled, the results of this request are represented as a DiagnosticReport resource with associated Observation resources</t>
+    <t>Service Request Resource is represents a request for some type of procedure or diagnostic test to be performed. When fulfilled, the results of this request are represented as a DiagnosticReport resource with associated Observation resources</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -543,7 +543,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.openmrs.org/fhir/StructureDefinition/OpenMRS-service-request)
+    <t xml:space="preserve">Reference(http://fhir.openmrs.org/core/StructureDefinition/OpenMRS-service-request)
 </t>
   </si>
   <si>
@@ -867,7 +867,7 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
-    <t>http://fhir.openmrs.org/fhir/ValueSet/OpenMRS-order-code-vs</t>
+    <t>http://fhir.openmrs.org/core/ValueSet/OpenMRS-order-code-vs</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -954,7 +954,7 @@
     <t>ServiceRequest.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.openmrs.org/fhir/StructureDefinition/omrs-patient)
+    <t xml:space="preserve">Reference(http://fhir.openmrs.org/core/StructureDefinition/omrs-patient)
 </t>
   </si>
   <si>
@@ -1113,7 +1113,7 @@
 orderer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.openmrs.org/fhir/StructureDefinition/omrs-practitioner)
+    <t xml:space="preserve">Reference(http://fhir.openmrs.org/core/StructureDefinition/omrs-practitioner)
 </t>
   </si>
   <si>
@@ -1759,7 +1759,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="78.9765625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="79.91796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
+++ b/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-08T19:25:22+00:00</t>
+    <t>2023-05-09T05:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
+++ b/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-09T05:52:21+00:00</t>
+    <t>2023-05-17T15:10:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
+++ b/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1816" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="419">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-17T15:10:06+00:00</t>
+    <t>2023-06-22T11:16:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -115,132 +115,6 @@
   </si>
   <si>
     <t>constraint</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: Workflow Pattern</t>
-  </si>
-  <si>
-    <t>Mapping: HL7 v2 Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: FiveWs Pattern Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: Quality Improvement and Clinical Knowledge (QUICK)</t>
-  </si>
-  <si>
-    <t>Mapping: FHIR HL7 vs OMRS FHIR2</t>
   </si>
   <si>
     <t>diagnostic request
@@ -621,7 +495,7 @@
     <t>The status of the order.</t>
   </si>
   <si>
-    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
+    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](http://hl7.org/fhir/R4/event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
   </si>
   <si>
     <t>required</t>
@@ -786,7 +660,7 @@
     <t>Many laboratory and radiology procedure codes embed the specimen/organ system in the test order name, for example,  serum or serum/plasma glucose, or a chest x-ray. The specimen might not be recorded separately from the test code.</t>
   </si>
   <si>
-    <t>Codes for tests or services that can be carried out by a designated individual, organization or healthcare service.  For laboratory, LOINC is  (preferred)[http://build.fhir.org/terminologies.html#preferred] and a valueset using LOINC Order codes is available [here](valueset-diagnostic-requests.html).</t>
+    <t>Codes for tests or services that can be carried out by a designated individual, organization or healthcare service.  For laboratory, LOINC is  (preferred)[http://build.fhir.org/terminologies.html#preferred] and a valueset using LOINC Order codes is available [here](http://hl7.org/fhir/R4/valueset-diagnostic-requests.html).</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/procedure-code</t>
@@ -1243,7 +1117,7 @@
     <t>An explanation or justification for why this service is being requested in coded or textual form.   This is often for billing purposes.  May relate to the resources referred to in `supportingInfo`.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>Diagnosis or problem codes justifying the reason for requesting the service investigation.</t>
@@ -1277,7 +1151,7 @@
     <t>Indicates another resource that provides a justification for why this service is being requested.   May relate to the resources referred to in `supportingInfo`.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>Request.reasonReference</t>
@@ -1398,6 +1272,9 @@
   <si>
     <t xml:space="preserve">Annotation
 </t>
+  </si>
+  <si>
+    <t>Comments</t>
   </si>
   <si>
     <t>Any other notes and comments made about the service request. For example, internal billing notes.</t>
@@ -1567,10 +1444,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1740,7 +1617,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP47"/>
+  <dimension ref="A1:AP46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1751,13 +1628,11 @@
   <cols>
     <col min="1" max="1" width="35.71484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="35.71484375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="79.91796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1768,5660 +1643,5533 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="9.6640625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="255.0" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="67.80078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="35.71484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="28.94140625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="85.41796875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="163.4453125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="66.88671875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="37.4609375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="16.3984375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="33.49609375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="36.078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="B1" t="s" s="1">
-        <v>35</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="D1" t="s" s="1">
-        <v>37</v>
-      </c>
-      <c r="E1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="L1" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="M1" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="AL1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="AM1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="K1" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>45</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>46</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>47</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AL1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AM1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AN1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AO1" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="AP1" t="s" s="1">
-        <v>75</v>
+      <c r="AN1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP1" t="s" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="N2" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="N2" t="s" s="2">
+        <v>50</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP2" t="s" s="2">
-        <v>7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP3" t="s" s="2">
-        <v>94</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="N4" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>63</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP4" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP5" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="G6" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="H6" t="s" s="2">
+      <c r="M6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="N6" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>114</v>
+        <v>37</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP6" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP7" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP8" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O9" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="O9" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="P9" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP9" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>133</v>
+        <v>37</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>143</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>139</v>
+        <v>58</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AP10" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>153</v>
+        <v>37</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>154</v>
+        <v>37</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>156</v>
+        <v>60</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP13" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="P15" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>184</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>146</v>
+        <v>66</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>79</v>
+        <v>156</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>190</v>
+        <v>158</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>79</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>203</v>
+        <v>37</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>204</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="O18" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="P18" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>211</v>
+        <v>37</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>213</v>
+        <v>171</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>215</v>
+        <v>66</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q19" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="Q19" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="R19" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>220</v>
+        <v>154</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>222</v>
+        <v>188</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>79</v>
+        <v>189</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>108</v>
+        <v>194</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="P20" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q20" t="s" s="2">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>196</v>
+        <v>37</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>229</v>
+        <v>37</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>230</v>
+        <v>37</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>232</v>
+        <v>37</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>234</v>
+        <v>37</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>236</v>
+        <v>173</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q21" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>79</v>
+        <v>210</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>243</v>
+        <v>211</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>79</v>
+        <v>212</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>79</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>245</v>
+        <v>37</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="Y22" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>253</v>
-      </c>
       <c r="AN22" t="s" s="2">
-        <v>254</v>
+        <v>37</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>255</v>
+        <v>37</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>256</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>258</v>
+        <v>92</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>259</v>
+        <v>93</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>79</v>
+        <v>224</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>79</v>
+        <v>225</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>262</v>
+        <v>220</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>133</v>
+        <v>37</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>134</v>
+        <v>228</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>135</v>
+        <v>229</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="P24" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>265</v>
+        <v>37</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>266</v>
+        <v>37</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>267</v>
+        <v>37</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>268</v>
+        <v>234</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>139</v>
+        <v>58</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>270</v>
+        <v>216</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>274</v>
+        <v>241</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="Y25" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>37</v>
+      </c>
       <c r="Z25" t="s" s="2">
-        <v>275</v>
+        <v>37</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>258</v>
+        <v>173</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>79</v>
+        <v>251</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>79</v>
+        <v>252</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>286</v>
+        <v>211</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>79</v>
+        <v>213</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>288</v>
+        <v>37</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>215</v>
+        <v>255</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="P27" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>220</v>
+        <v>37</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>292</v>
+        <v>37</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>293</v>
+        <v>37</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>294</v>
+        <v>37</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>255</v>
+        <v>37</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>297</v>
+        <v>261</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>299</v>
+        <v>263</v>
       </c>
       <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>300</v>
-      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>79</v>
+        <v>264</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>79</v>
+        <v>267</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>79</v>
+        <v>268</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>79</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>79</v>
+        <v>271</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>304</v>
+        <v>273</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>307</v>
+        <v>276</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>309</v>
+        <v>278</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>311</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>315</v>
+        <v>283</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>318</v>
+        <v>286</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>319</v>
+        <v>287</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>320</v>
+        <v>288</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>321</v>
+        <v>289</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>79</v>
+        <v>290</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>323</v>
+        <v>37</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>324</v>
+        <v>292</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>79</v>
+        <v>295</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>79</v>
+        <v>296</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>327</v>
+        <v>37</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>328</v>
+        <v>37</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>330</v>
+        <v>37</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>331</v>
+        <v>298</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>332</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>79</v>
+        <v>300</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>335</v>
+        <v>302</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>336</v>
+        <v>303</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>220</v>
+        <v>37</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>337</v>
+        <v>37</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>338</v>
+        <v>37</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>79</v>
+        <v>304</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>79</v>
+        <v>305</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>79</v>
+        <v>307</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>343</v>
+        <v>311</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>344</v>
+        <v>312</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>341</v>
+        <v>309</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>346</v>
+        <v>315</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>348</v>
+        <v>317</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>349</v>
+        <v>318</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>350</v>
+        <v>319</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>79</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>351</v>
+        <v>320</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>351</v>
+        <v>320</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>352</v>
+        <v>321</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>353</v>
+        <v>173</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>356</v>
+        <v>324</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>79</v>
+        <v>325</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>79</v>
+        <v>326</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>351</v>
+        <v>320</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>357</v>
+        <v>327</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>358</v>
+        <v>328</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>359</v>
+        <v>329</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>361</v>
+        <v>37</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>351</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>363</v>
+        <v>332</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>215</v>
+        <v>261</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>365</v>
+        <v>334</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>220</v>
+        <v>37</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>367</v>
+        <v>37</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>368</v>
+        <v>37</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>370</v>
+        <v>337</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>372</v>
+        <v>330</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>79</v>
+        <v>339</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>373</v>
+        <v>340</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>373</v>
+        <v>340</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>374</v>
+        <v>37</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>303</v>
+        <v>173</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>375</v>
+        <v>341</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>79</v>
+        <v>343</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>79</v>
+        <v>344</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>373</v>
+        <v>340</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>378</v>
+        <v>37</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>379</v>
+        <v>37</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>380</v>
+        <v>345</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>372</v>
+        <v>330</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>381</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>382</v>
+        <v>346</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>382</v>
+        <v>346</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>215</v>
+        <v>347</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>383</v>
+        <v>341</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>384</v>
+        <v>348</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>220</v>
+        <v>37</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>385</v>
+        <v>37</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>386</v>
+        <v>37</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>382</v>
+        <v>346</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>387</v>
+        <v>349</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>372</v>
+        <v>330</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>388</v>
+        <v>350</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>388</v>
+        <v>350</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>389</v>
+        <v>173</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>383</v>
+        <v>351</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>79</v>
+        <v>355</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>388</v>
+        <v>350</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>79</v>
+        <v>356</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>79</v>
+        <v>357</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>391</v>
+        <v>358</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>392</v>
+        <v>360</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>392</v>
+        <v>360</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>215</v>
+        <v>361</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>393</v>
+        <v>362</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>394</v>
+        <v>363</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>395</v>
+        <v>364</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>220</v>
+        <v>37</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>396</v>
+        <v>37</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>397</v>
+        <v>37</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>392</v>
+        <v>360</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>398</v>
+        <v>365</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>399</v>
+        <v>366</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>400</v>
+        <v>367</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>401</v>
+        <v>359</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>402</v>
+        <v>368</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>402</v>
+        <v>368</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>403</v>
+        <v>369</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>402</v>
+        <v>368</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>407</v>
+        <v>372</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>408</v>
+        <v>373</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>409</v>
+        <v>374</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>401</v>
+        <v>37</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>410</v>
+        <v>375</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>410</v>
+        <v>375</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>79</v>
+        <v>376</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>411</v>
+        <v>377</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>412</v>
+        <v>378</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>410</v>
+        <v>375</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>414</v>
+        <v>381</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>415</v>
+        <v>382</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>416</v>
+        <v>383</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>417</v>
+        <v>384</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>417</v>
+        <v>384</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>418</v>
+        <v>37</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>419</v>
+        <v>385</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>420</v>
+        <v>386</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>421</v>
+        <v>387</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>422</v>
+        <v>388</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>417</v>
+        <v>384</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>423</v>
+        <v>37</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>424</v>
+        <v>389</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>425</v>
+        <v>390</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>426</v>
+        <v>391</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>426</v>
+        <v>391</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>79</v>
+        <v>392</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>427</v>
+        <v>173</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>428</v>
+        <v>393</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>429</v>
+        <v>394</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="P43" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>79</v>
+        <v>397</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>79</v>
+        <v>398</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>426</v>
+        <v>391</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>431</v>
+        <v>389</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>432</v>
+        <v>399</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>79</v>
+        <v>400</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>433</v>
+        <v>401</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>433</v>
+        <v>401</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>434</v>
+        <v>37</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>215</v>
+        <v>402</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>435</v>
+        <v>403</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>438</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>220</v>
+        <v>37</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>439</v>
+        <v>37</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>440</v>
+        <v>37</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>433</v>
+        <v>401</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>79</v>
+        <v>405</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>431</v>
+        <v>253</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>441</v>
+        <v>406</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>442</v>
+        <v>407</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>443</v>
+        <v>408</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>443</v>
+        <v>408</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>444</v>
+        <v>216</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>47</v>
+        <v>409</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>445</v>
+        <v>410</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>443</v>
+        <v>408</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>446</v>
+        <v>37</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>447</v>
+        <v>411</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>448</v>
+        <v>37</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>449</v>
+        <v>412</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>449</v>
+        <v>412</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>258</v>
+        <v>413</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>450</v>
+        <v>414</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>449</v>
+        <v>412</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>79</v>
+        <v>417</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>295</v>
+        <v>89</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>452</v>
+        <v>418</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="O47" s="2"/>
-      <c r="P47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q47" s="2"/>
-      <c r="R47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP47" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
+++ b/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-22T11:16:34+00:00</t>
+    <t>2023-06-23T17:20:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
+++ b/branches/main/StructureDefinition-OpenMRS-service-request.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1818" uniqueCount="462">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-23T17:20:12+00:00</t>
+    <t>2024-12-11T17:17:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -66,7 +66,13 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>OpenMRS, Inc. (https://openmrs.org)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -115,6 +121,132 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: FHIR HL7 vs OMRS FHIR2</t>
+  </si>
+  <si>
+    <t>Mapping: Workflow Pattern</t>
+  </si>
+  <si>
+    <t>Mapping: HL7 v2 Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: Quality Improvement and Clinical Knowledge (QUICK)</t>
   </si>
   <si>
     <t>diagnostic request
@@ -127,9 +259,6 @@
     <t>*</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t xml:space="preserve">
 </t>
   </si>
@@ -140,6 +269,10 @@
     <t>A record of a request for service such as diagnostic investigations, treatments, or operations to be performed.</t>
   </si>
   <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}prr-1:orderDetail SHALL only be present if code is present {orderDetail.empty() or code.exists()}</t>
+  </si>
+  <si>
     <t>Request</t>
   </si>
   <si>
@@ -507,6 +640,9 @@
     <t>http://hl7.org/fhir/ValueSet/request-status|4.0.1</t>
   </si>
   <si>
+    <t>ServiceRequest.ServiceRequestStatus</t>
+  </si>
+  <si>
     <t>Request.status</t>
   </si>
   <si>
@@ -520,9 +656,6 @@
   </si>
   <si>
     <t>Action.currentStatus</t>
-  </si>
-  <si>
-    <t>ServiceRequest.ServiceRequestStatus</t>
   </si>
   <si>
     <t>ServiceRequest.intent</t>
@@ -666,6 +799,9 @@
     <t>http://hl7.org/fhir/ValueSet/procedure-code</t>
   </si>
   <si>
+    <t>TestOrder.concept</t>
+  </si>
+  <si>
     <t>Request.code</t>
   </si>
   <si>
@@ -679,9 +815,6 @@
   </si>
   <si>
     <t>Procedure.procedureCode</t>
-  </si>
-  <si>
-    <t>TestOrder.concept</t>
   </si>
   <si>
     <t>ServiceRequest.code.id</t>
@@ -838,6 +971,9 @@
     <t>On whom or what the service is to be performed. This is usually a human patient, but can also be requested on animals, groups of humans or animals, devices such as dialysis machines, or even locations (typically for environmental scans).</t>
   </si>
   <si>
+    <t>TestOrder.patient</t>
+  </si>
+  <si>
     <t>Request.subject</t>
   </si>
   <si>
@@ -851,9 +987,6 @@
   </si>
   <si>
     <t>ClinicalStatement.subject</t>
-  </si>
-  <si>
-    <t>TestOrder.patient</t>
   </si>
   <si>
     <t>ServiceRequest.encounter</t>
@@ -905,6 +1038,9 @@
     <t>The date/time at which the requested service should occur.</t>
   </si>
   <si>
+    <t>TestOrder.effectiveEndDate</t>
+  </si>
+  <si>
     <t>Request.occurrence[x]</t>
   </si>
   <si>
@@ -918,9 +1054,6 @@
   </si>
   <si>
     <t>Procedure.procedureSchedule</t>
-  </si>
-  <si>
-    <t>TestOrder.effectiveEndDate</t>
   </si>
   <si>
     <t>ServiceRequest.asNeeded[x]</t>
@@ -1065,6 +1198,9 @@
     <t>If multiple performers are present, it is interpreted as a list of *alternative* performers without any preference regardless of order.  If order of preference is needed use the [request-performerOrder extension](http://hl7.org/fhir/R4/extension-request-performerorder.html).  Use CareTeam to represent a group of performers (for example, Practitioner A *and* Practitioner B).</t>
   </si>
   <si>
+    <t>Task.owner</t>
+  </si>
+  <si>
     <t>Request.performer</t>
   </si>
   <si>
@@ -1072,9 +1208,6 @@
   </si>
   <si>
     <t>.participation[typeCode=PRF].role[scoper.determinerCode=INSTANCE]</t>
-  </si>
-  <si>
-    <t>Task.owner</t>
   </si>
   <si>
     <t>ServiceRequest.locationCode</t>
@@ -1272,9 +1405,6 @@
   <si>
     <t xml:space="preserve">Annotation
 </t>
-  </si>
-  <si>
-    <t>Comments</t>
   </si>
   <si>
     <t>Any other notes and comments made about the service request. For example, internal billing notes.</t>
@@ -1456,7 +1586,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1554,21 +1684,21 @@
       <c r="A12" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>23</v>
       </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
@@ -1608,6 +1738,14 @@
       </c>
       <c r="B19" t="s" s="2">
         <v>33</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1617,7 +1755,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP46"/>
+  <dimension ref="A1:AP47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1628,11 +1766,13 @@
   <cols>
     <col min="1" max="1" width="35.71484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="35.71484375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="79.91796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1643,5533 +1783,5660 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="9.6640625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="255.0" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="67.80078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="35.71484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="28.94140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="85.41796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="163.4453125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="16.3984375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="33.49609375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="36.078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="37.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="85.41796875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="163.4453125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="66.88671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="G1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>36</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>37</v>
       </c>
-      <c r="I1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AK1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="AM1" t="s" s="2">
+      <c r="H1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="AN1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP1" t="s" s="2">
-        <v>7</v>
+      <c r="I1" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="J1" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="K1" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AM1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AN1" t="s" s="1">
+        <v>75</v>
+      </c>
+      <c r="AO1" t="s" s="1">
+        <v>76</v>
+      </c>
+      <c r="AP1" t="s" s="1">
+        <v>77</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>50</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AP2" t="s" s="2">
-        <v>52</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AP3" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>63</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AP4" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AP5" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AP6" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>37</v>
+        <v>125</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AP7" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AP8" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AP9" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>37</v>
+        <v>135</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="O10" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="O10" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="P10" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>58</v>
+        <v>141</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>109</v>
+        <v>19</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="AP10" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>37</v>
+        <v>154</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>37</v>
+        <v>155</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>37</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>60</v>
+        <v>158</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>119</v>
+        <v>162</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>120</v>
+        <v>163</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>37</v>
+        <v>164</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>37</v>
+        <v>164</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AP13" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>128</v>
+        <v>172</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>37</v>
+        <v>177</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>141</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>141</v>
+        <v>178</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>104</v>
+        <v>172</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>141</v>
+        <v>178</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>147</v>
+        <v>19</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>148</v>
+        <v>182</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>37</v>
+        <v>184</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>37</v>
+        <v>186</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>66</v>
+        <v>148</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O16" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="P16" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>154</v>
+        <v>19</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>155</v>
+        <v>19</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>156</v>
+        <v>19</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>157</v>
+        <v>19</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>158</v>
+        <v>191</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>162</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>163</v>
+        <v>194</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>163</v>
+        <v>194</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>163</v>
+        <v>194</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>89</v>
+        <v>202</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>170</v>
+        <v>203</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>37</v>
+        <v>205</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>37</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>37</v>
+        <v>215</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>66</v>
+        <v>217</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="P19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q19" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>154</v>
+        <v>222</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>189</v>
+        <v>19</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>190</v>
+        <v>19</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>37</v>
+        <v>215</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>194</v>
+        <v>110</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="O20" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q20" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="R20" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X20" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="P20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q20" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="R20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>37</v>
-      </c>
       <c r="Y20" t="s" s="2">
-        <v>37</v>
+        <v>231</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>37</v>
+        <v>232</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>37</v>
+        <v>233</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>201</v>
+        <v>234</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>37</v>
+        <v>235</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>37</v>
+        <v>236</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>203</v>
+        <v>19</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>173</v>
+        <v>238</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="P21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q21" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="Q21" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="R21" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>178</v>
+        <v>19</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>207</v>
+        <v>19</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>208</v>
+        <v>19</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>209</v>
+        <v>19</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>211</v>
+        <v>19</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>213</v>
+        <v>19</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>214</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>37</v>
+        <v>247</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>37</v>
+        <v>222</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>37</v>
+        <v>251</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>37</v>
+        <v>252</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>37</v>
+        <v>253</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>37</v>
+        <v>254</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>37</v>
+        <v>256</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>37</v>
+        <v>257</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>37</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>221</v>
+        <v>259</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>221</v>
+        <v>259</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>92</v>
+        <v>260</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>93</v>
+        <v>261</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>95</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>223</v>
+        <v>19</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>224</v>
+        <v>19</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>225</v>
+        <v>19</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>226</v>
+        <v>263</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>220</v>
+        <v>19</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>37</v>
+        <v>264</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>227</v>
+        <v>265</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>227</v>
+        <v>265</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>37</v>
+        <v>135</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>228</v>
+        <v>136</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>229</v>
+        <v>137</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="Y24" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>19</v>
+      </c>
       <c r="Z24" t="s" s="2">
-        <v>233</v>
+        <v>19</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>37</v>
+        <v>267</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>37</v>
+        <v>268</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>37</v>
+        <v>269</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>58</v>
+        <v>141</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>235</v>
+        <v>19</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>236</v>
+        <v>19</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>37</v>
+        <v>264</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>237</v>
+        <v>271</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>237</v>
+        <v>271</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>216</v>
+        <v>272</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>241</v>
+        <v>276</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>37</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>37</v>
+        <v>277</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>243</v>
+        <v>19</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>37</v>
+        <v>280</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>246</v>
+        <v>19</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>173</v>
+        <v>260</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>247</v>
+        <v>282</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="P26" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>178</v>
+        <v>19</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>250</v>
+        <v>19</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>251</v>
+        <v>19</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>245</v>
+        <v>286</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>252</v>
+        <v>19</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>253</v>
+        <v>19</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>211</v>
+        <v>287</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>37</v>
+        <v>288</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>213</v>
+        <v>19</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>37</v>
+        <v>290</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>37</v>
+        <v>222</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>37</v>
+        <v>294</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>37</v>
+        <v>295</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>37</v>
+        <v>296</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>253</v>
+        <v>19</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>259</v>
+        <v>297</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>37</v>
+        <v>256</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>37</v>
+        <v>258</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="P28" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>264</v>
+        <v>19</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>265</v>
+        <v>19</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>267</v>
+        <v>303</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>268</v>
+        <v>19</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>269</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>271</v>
+        <v>19</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>37</v>
+        <v>313</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>285</v>
+        <v>19</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>290</v>
+        <v>323</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>37</v>
+        <v>325</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>292</v>
+        <v>326</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>294</v>
+        <v>328</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>178</v>
+        <v>19</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>295</v>
+        <v>19</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>296</v>
+        <v>19</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>37</v>
+        <v>329</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>37</v>
+        <v>330</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>297</v>
+        <v>331</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>37</v>
+        <v>332</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>37</v>
+        <v>334</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>300</v>
+        <v>19</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>37</v>
+        <v>222</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>37</v>
+        <v>339</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>37</v>
+        <v>340</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>304</v>
+        <v>19</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>305</v>
+        <v>19</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>306</v>
+        <v>19</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>308</v>
+        <v>19</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>37</v>
+        <v>342</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>315</v>
+        <v>19</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>309</v>
+        <v>352</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>173</v>
+        <v>355</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>178</v>
+        <v>19</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>325</v>
+        <v>19</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>326</v>
+        <v>19</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>328</v>
+        <v>359</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>329</v>
+        <v>360</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>330</v>
+        <v>361</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>37</v>
+        <v>362</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>37</v>
+        <v>363</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>261</v>
+        <v>217</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>334</v>
+        <v>367</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>335</v>
+        <v>368</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>37</v>
+        <v>222</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>37</v>
+        <v>369</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>37</v>
+        <v>370</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>336</v>
+        <v>19</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>337</v>
+        <v>371</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>338</v>
+        <v>372</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>330</v>
+        <v>373</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>37</v>
+        <v>374</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>339</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>37</v>
+        <v>376</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>173</v>
+        <v>305</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>379</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>178</v>
+        <v>19</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>343</v>
+        <v>19</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>344</v>
+        <v>19</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>37</v>
+        <v>380</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>37</v>
+        <v>381</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>330</v>
+        <v>383</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>37</v>
+        <v>374</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>347</v>
+        <v>217</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>341</v>
+        <v>385</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>348</v>
+        <v>386</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>37</v>
+        <v>222</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>37</v>
+        <v>387</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>37</v>
+        <v>388</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>349</v>
+        <v>19</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>330</v>
+        <v>389</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>37</v>
+        <v>374</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>173</v>
+        <v>391</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>351</v>
+        <v>385</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>178</v>
+        <v>19</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>354</v>
+        <v>19</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>355</v>
+        <v>19</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>356</v>
+        <v>19</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>357</v>
+        <v>19</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>358</v>
+        <v>19</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>359</v>
+        <v>393</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>37</v>
+        <v>374</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>360</v>
+        <v>394</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>360</v>
+        <v>394</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>361</v>
+        <v>217</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>362</v>
+        <v>395</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>363</v>
+        <v>396</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>364</v>
+        <v>397</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>37</v>
+        <v>222</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>37</v>
+        <v>398</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>37</v>
+        <v>399</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>360</v>
+        <v>394</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>365</v>
+        <v>19</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>367</v>
+        <v>401</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>37</v>
+        <v>403</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>368</v>
+        <v>404</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>368</v>
+        <v>404</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>369</v>
+        <v>405</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>370</v>
+        <v>406</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>408</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>368</v>
+        <v>404</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>372</v>
+        <v>19</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>373</v>
+        <v>409</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>374</v>
+        <v>410</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>37</v>
+        <v>411</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>37</v>
+        <v>403</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>375</v>
+        <v>412</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>375</v>
+        <v>412</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>376</v>
+        <v>19</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>377</v>
+        <v>413</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>378</v>
+        <v>414</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>375</v>
+        <v>412</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>381</v>
+        <v>19</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>382</v>
+        <v>416</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>383</v>
+        <v>417</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>37</v>
+        <v>418</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>384</v>
+        <v>419</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>384</v>
+        <v>419</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>37</v>
+        <v>420</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>385</v>
+        <v>421</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>386</v>
+        <v>422</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>387</v>
+        <v>423</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>388</v>
+        <v>424</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>384</v>
+        <v>419</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>389</v>
+        <v>425</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>390</v>
+        <v>426</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>37</v>
+        <v>427</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>391</v>
+        <v>428</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>391</v>
+        <v>428</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>392</v>
+        <v>19</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>173</v>
+        <v>429</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>393</v>
+        <v>430</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>394</v>
+        <v>431</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>432</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>178</v>
+        <v>19</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>397</v>
+        <v>19</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>398</v>
+        <v>19</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>391</v>
+        <v>428</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>389</v>
+        <v>19</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>399</v>
+        <v>433</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>37</v>
+        <v>434</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>400</v>
+        <v>19</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>401</v>
+        <v>435</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>401</v>
+        <v>435</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>37</v>
+        <v>436</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>402</v>
+        <v>217</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>403</v>
+        <v>437</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+        <v>438</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="P44" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>37</v>
+        <v>222</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>37</v>
+        <v>441</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>37</v>
+        <v>442</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>401</v>
+        <v>435</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>405</v>
+        <v>19</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>253</v>
+        <v>19</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>406</v>
+        <v>433</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>37</v>
+        <v>443</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>407</v>
+        <v>19</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>37</v>
+        <v>444</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>408</v>
+        <v>445</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>408</v>
+        <v>445</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>216</v>
+        <v>446</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>409</v>
+        <v>49</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>410</v>
+        <v>447</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>408</v>
+        <v>445</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>253</v>
+        <v>448</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>411</v>
+        <v>297</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>37</v>
+        <v>449</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>37</v>
+        <v>450</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>412</v>
+        <v>451</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>412</v>
+        <v>451</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>413</v>
+        <v>260</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>414</v>
+        <v>452</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>416</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>412</v>
+        <v>451</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>417</v>
+        <v>19</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>418</v>
+        <v>297</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>37</v>
+        <v>454</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>37</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="O47" s="2"/>
+      <c r="P47" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AO47" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AP47" t="s" s="2">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
